--- a/Document/Organizzazione/Organizzazione.xlsx
+++ b/Document/Organizzazione/Organizzazione.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famig\Documents\GitHub\ProgettoGiocoDellOcaOfficial\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\famig\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57E3069-8223-4AA7-BEB3-57718BFF1D58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF7364-600B-499E-B41C-8862885575F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6DA9F732-DD5B-4C89-A373-48377597A95C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{6DA9F732-DD5B-4C89-A373-48377597A95C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -69,22 +69,22 @@
     <t>IDEA</t>
   </si>
   <si>
-    <t>Classe Impostazioni e partita</t>
-  </si>
-  <si>
-    <t>Classi Campo, Dado, Partita</t>
-  </si>
-  <si>
-    <t>Classe Giocatore, Impostazioni, Partita</t>
-  </si>
-  <si>
-    <t>Classi Casella/Casella speciale, Partita</t>
-  </si>
-  <si>
     <t>COMPONENTI + RUOLO</t>
   </si>
   <si>
     <t>Github Desktop</t>
+  </si>
+  <si>
+    <t>Classe partita, controllo classe impostazioni</t>
+  </si>
+  <si>
+    <t>Classi Campo, Dado, controllo Partita</t>
+  </si>
+  <si>
+    <t>Classe Giocatore, Impostazioni, controllo Partita</t>
+  </si>
+  <si>
+    <t>Classi Casella/Casella speciale, c0ntrollo Partita</t>
   </si>
 </sst>
 </file>
@@ -169,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -190,18 +190,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -519,10 +520,13 @@
   <dimension ref="B2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" activeCellId="1" sqref="G3 G5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B2" s="5" t="s">
@@ -586,16 +590,16 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -615,11 +619,11 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
@@ -641,11 +645,11 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -669,43 +673,44 @@
         <v>6</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
-      <c r="D16" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+      <c r="D16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -713,30 +718,30 @@
         <v>7</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="D18" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -744,70 +749,65 @@
         <v>8</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="D25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B24:C24"/>
@@ -823,6 +823,11 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
